--- a/Projects/AAXDataEntityPerfTest/Excel/Data Entity Method Execution.xlsx
+++ b/Projects/AAXDataEntityPerfTest/Excel/Data Entity Method Execution.xlsx
@@ -21,7 +21,7 @@
     <sheet name="DMF Update" sheetId="7" r:id="rId7"/>
     <sheet name="DMF Export" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="200">
   <si>
     <t>Odata Create (POST)</t>
   </si>
@@ -471,132 +471,6 @@
     <t>1,6/8/2021 02:25:33 am,AAXTableEntity.aosValidateRead</t>
   </si>
   <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.postLoad</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.aosValidateRead</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.reread</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.validateField</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.validateFieldValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.defaultRow</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.validateWrite</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.update</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.persistEntity</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.initializeEntityDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.postLoad</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.aosValidateRead</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.mapEntityToDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.updateEntityDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.validateField</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.validateFieldValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.defaultRow</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.validateWrite</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.update</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTable.aosValidateUpdate</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:27:55 am,AAXTableEntity.mapDataSourceToEntity</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.postLoad</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.reread</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.initValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.validateField</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.validateFieldValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.defaultRow</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.validateWrite</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.insert</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.persistEntity</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.initializeEntityDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.initValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.postLoad</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.mapEntityToDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.insertEntityDataSource</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.validateField</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.validateFieldValue</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.defaultRow</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.validateWrite</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.insert</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTable.aosValidateInsert</t>
-  </si>
-  <si>
-    <t>1,6/8/2021 02:30:22 am,AAXTableEntity.mapDataSourceToEntity</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
@@ -637,6 +511,135 @@
   </si>
   <si>
     <t>DMF Update</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:08 am,AAXTableEntity::postGetStagingData</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.postLoad</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.aosValidateRead</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.reread</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.validateField</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.validateFieldValue</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.defaultRow</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.validateWrite</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.update</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.persistEntity</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.initializeEntityDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.postLoad</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.aosValidateRead</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.mapEntityToDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.updateEntityDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.defaultRow</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.validateWrite</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.update</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTable.aosValidateUpdate</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:57:09 am,AAXTableEntity.mapDataSourceToEntity</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity::postGetStagingData</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.postLoad</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.reread</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.initValue</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.validateField</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.validateFieldValue</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.defaultRow</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.validateWrite</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.insert</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.persistEntity</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.initializeEntityDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.initValue</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.postLoad</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.mapEntityToDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.insertEntityDataSource</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.validateField</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.validateFieldValue</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.defaultRow</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.validateWrite</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.insert</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTable.aosValidateInsert</t>
+  </si>
+  <si>
+    <t>1,2/24/2022 01:53:25 am,AAXTableEntity.mapDataSourceToEntity</t>
+  </si>
+  <si>
+    <t>postGetStagingData</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1103,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="L2:L24" totalsRowShown="0">
-  <autoFilter ref="L2:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="L2:L29" totalsRowShown="0">
+  <autoFilter ref="L2:L29"/>
   <tableColumns count="1">
     <tableColumn id="1" name="DMF Insert"/>
   </tableColumns>
@@ -1120,8 +1123,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="L2:L25" totalsRowShown="0">
-  <autoFilter ref="L2:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="L2:L26" totalsRowShown="0">
+  <autoFilter ref="L2:L26"/>
   <tableColumns count="1">
     <tableColumn id="1" name="DMF Update"/>
   </tableColumns>
@@ -1567,7 +1570,7 @@
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="34" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -4268,7 +4271,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
         <v>99</v>
@@ -4496,7 +4499,7 @@
       <c r="A4"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -4640,7 +4643,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -4925,7 +4928,7 @@
       <c r="A7"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5351,7 +5354,7 @@
     <row r="10" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="18" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5493,7 +5496,7 @@
       <c r="A11"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -6621,7 +6624,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6976,7 +6979,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s">
         <v>123</v>
@@ -7202,7 +7205,7 @@
       <c r="A4"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -7346,7 +7349,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -7631,7 +7634,7 @@
       <c r="A7"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -8484,7 +8487,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13"/>
@@ -9057,7 +9060,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
         <v>138</v>
@@ -9121,16 +9124,16 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9187,7 +9190,7 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
@@ -9198,7 +9201,7 @@
     </row>
     <row r="7" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -9220,7 +9223,7 @@
     </row>
     <row r="9" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -9234,7 +9237,7 @@
     </row>
     <row r="11" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -9448,7 +9451,7 @@
       <c r="A4"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -11230,10 +11233,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:EC25"/>
+  <dimension ref="A2:EC29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11261,26 +11264,26 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
-      <c r="B3" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3"/>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -11406,14 +11409,14 @@
     </row>
     <row r="4" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="H4"/>
       <c r="I4" s="2"/>
       <c r="J4" t="s">
@@ -11421,2649 +11424,7 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
-      <c r="AY4"/>
-      <c r="AZ4"/>
-      <c r="BA4"/>
-      <c r="BB4"/>
-      <c r="BC4"/>
-      <c r="BD4"/>
-      <c r="BE4"/>
-      <c r="BF4"/>
-      <c r="BG4"/>
-      <c r="BH4"/>
-      <c r="BI4"/>
-      <c r="BJ4"/>
-      <c r="BK4"/>
-      <c r="BL4"/>
-      <c r="BM4"/>
-      <c r="BN4"/>
-      <c r="BO4"/>
-      <c r="BP4"/>
-      <c r="BQ4"/>
-      <c r="BR4"/>
-      <c r="BS4"/>
-      <c r="BT4"/>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
-      <c r="BY4"/>
-      <c r="BZ4"/>
-      <c r="CA4"/>
-      <c r="CB4"/>
-      <c r="CC4"/>
-      <c r="CD4"/>
-      <c r="CE4"/>
-      <c r="CF4"/>
-      <c r="CG4"/>
-      <c r="CH4"/>
-      <c r="CI4"/>
-      <c r="CJ4"/>
-      <c r="CK4"/>
-      <c r="CL4"/>
-      <c r="CM4"/>
-      <c r="CN4"/>
-      <c r="CO4"/>
-      <c r="CP4"/>
-      <c r="CQ4"/>
-      <c r="CR4"/>
-      <c r="CS4"/>
-      <c r="CT4"/>
-      <c r="CU4"/>
-      <c r="CV4"/>
-      <c r="CW4"/>
-      <c r="CX4"/>
-      <c r="CY4"/>
-      <c r="CZ4"/>
-      <c r="DA4"/>
-      <c r="DB4"/>
-      <c r="DC4"/>
-      <c r="DD4"/>
-      <c r="DE4"/>
-      <c r="DF4"/>
-      <c r="DG4"/>
-      <c r="DH4"/>
-      <c r="DI4"/>
-      <c r="DJ4"/>
-      <c r="DK4"/>
-      <c r="DL4"/>
-      <c r="DM4"/>
-      <c r="DN4"/>
-      <c r="DO4"/>
-      <c r="DP4"/>
-      <c r="DQ4"/>
-      <c r="DR4"/>
-      <c r="DS4"/>
-      <c r="DT4"/>
-      <c r="DU4"/>
-      <c r="DV4"/>
-      <c r="DW4"/>
-      <c r="DX4"/>
-      <c r="DY4"/>
-      <c r="DZ4"/>
-      <c r="EA4"/>
-      <c r="EB4"/>
-      <c r="EC4"/>
-    </row>
-    <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
-      <c r="AZ5"/>
-      <c r="BA5"/>
-      <c r="BB5"/>
-      <c r="BC5"/>
-      <c r="BD5"/>
-      <c r="BE5"/>
-      <c r="BF5"/>
-      <c r="BG5"/>
-      <c r="BH5"/>
-      <c r="BI5"/>
-      <c r="BJ5"/>
-      <c r="BK5"/>
-      <c r="BL5"/>
-      <c r="BM5"/>
-      <c r="BN5"/>
-      <c r="BO5"/>
-      <c r="BP5"/>
-      <c r="BQ5"/>
-      <c r="BR5"/>
-      <c r="BS5"/>
-      <c r="BT5"/>
-      <c r="BU5"/>
-      <c r="BV5"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
-      <c r="BY5"/>
-      <c r="BZ5"/>
-      <c r="CA5"/>
-      <c r="CB5"/>
-      <c r="CC5"/>
-      <c r="CD5"/>
-      <c r="CE5"/>
-      <c r="CF5"/>
-      <c r="CG5"/>
-      <c r="CH5"/>
-      <c r="CI5"/>
-      <c r="CJ5"/>
-      <c r="CK5"/>
-      <c r="CL5"/>
-      <c r="CM5"/>
-      <c r="CN5"/>
-      <c r="CO5"/>
-      <c r="CP5"/>
-      <c r="CQ5"/>
-      <c r="CR5"/>
-      <c r="CS5"/>
-      <c r="CT5"/>
-      <c r="CU5"/>
-      <c r="CV5"/>
-      <c r="CW5"/>
-      <c r="CX5"/>
-      <c r="CY5"/>
-      <c r="CZ5"/>
-      <c r="DA5"/>
-      <c r="DB5"/>
-      <c r="DC5"/>
-      <c r="DD5"/>
-      <c r="DE5"/>
-      <c r="DF5"/>
-      <c r="DG5"/>
-      <c r="DH5"/>
-      <c r="DI5"/>
-      <c r="DJ5"/>
-      <c r="DK5"/>
-      <c r="DL5"/>
-      <c r="DM5"/>
-      <c r="DN5"/>
-      <c r="DO5"/>
-      <c r="DP5"/>
-      <c r="DQ5"/>
-      <c r="DR5"/>
-      <c r="DS5"/>
-      <c r="DT5"/>
-      <c r="DU5"/>
-      <c r="DV5"/>
-      <c r="DW5"/>
-      <c r="DX5"/>
-      <c r="DY5"/>
-      <c r="DZ5"/>
-      <c r="EA5"/>
-      <c r="EB5"/>
-      <c r="EC5"/>
-    </row>
-    <row r="6" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6"/>
-      <c r="I6" s="10"/>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
-      <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6"/>
-      <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
-      <c r="BM6"/>
-      <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
-      <c r="BQ6"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
-      <c r="BY6"/>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
-      <c r="CG6"/>
-      <c r="CH6"/>
-      <c r="CI6"/>
-      <c r="CJ6"/>
-      <c r="CK6"/>
-      <c r="CL6"/>
-      <c r="CM6"/>
-      <c r="CN6"/>
-      <c r="CO6"/>
-      <c r="CP6"/>
-      <c r="CQ6"/>
-      <c r="CR6"/>
-      <c r="CS6"/>
-      <c r="CT6"/>
-      <c r="CU6"/>
-      <c r="CV6"/>
-      <c r="CW6"/>
-      <c r="CX6"/>
-      <c r="CY6"/>
-      <c r="CZ6"/>
-      <c r="DA6"/>
-      <c r="DB6"/>
-      <c r="DC6"/>
-      <c r="DD6"/>
-      <c r="DE6"/>
-      <c r="DF6"/>
-      <c r="DG6"/>
-      <c r="DH6"/>
-      <c r="DI6"/>
-      <c r="DJ6"/>
-      <c r="DK6"/>
-      <c r="DL6"/>
-      <c r="DM6"/>
-      <c r="DN6"/>
-      <c r="DO6"/>
-      <c r="DP6"/>
-      <c r="DQ6"/>
-      <c r="DR6"/>
-      <c r="DS6"/>
-      <c r="DT6"/>
-      <c r="DU6"/>
-      <c r="DV6"/>
-      <c r="DW6"/>
-      <c r="DX6"/>
-      <c r="DY6"/>
-      <c r="DZ6"/>
-      <c r="EA6"/>
-      <c r="EB6"/>
-      <c r="EC6"/>
-    </row>
-    <row r="7" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
-      <c r="BF7"/>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
-      <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
-      <c r="BY7"/>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
-      <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7"/>
-      <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7"/>
-      <c r="DH7"/>
-      <c r="DI7"/>
-      <c r="DJ7"/>
-      <c r="DK7"/>
-      <c r="DL7"/>
-      <c r="DM7"/>
-      <c r="DN7"/>
-      <c r="DO7"/>
-      <c r="DP7"/>
-      <c r="DQ7"/>
-      <c r="DR7"/>
-      <c r="DS7"/>
-      <c r="DT7"/>
-      <c r="DU7"/>
-      <c r="DV7"/>
-      <c r="DW7"/>
-      <c r="DX7"/>
-      <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
-      <c r="EC7"/>
-    </row>
-    <row r="8" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-      <c r="BE8"/>
-      <c r="BF8"/>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
-      <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
-      <c r="BQ8"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
-      <c r="BT8"/>
-      <c r="BU8"/>
-      <c r="BV8"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
-      <c r="BY8"/>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
-      <c r="CG8"/>
-      <c r="CH8"/>
-      <c r="CI8"/>
-      <c r="CJ8"/>
-      <c r="CK8"/>
-      <c r="CL8"/>
-      <c r="CM8"/>
-      <c r="CN8"/>
-      <c r="CO8"/>
-      <c r="CP8"/>
-      <c r="CQ8"/>
-      <c r="CR8"/>
-      <c r="CS8"/>
-      <c r="CT8"/>
-      <c r="CU8"/>
-      <c r="CV8"/>
-      <c r="CW8"/>
-      <c r="CX8"/>
-      <c r="CY8"/>
-      <c r="CZ8"/>
-      <c r="DA8"/>
-      <c r="DB8"/>
-      <c r="DC8"/>
-      <c r="DD8"/>
-      <c r="DE8"/>
-      <c r="DF8"/>
-      <c r="DG8"/>
-      <c r="DH8"/>
-      <c r="DI8"/>
-      <c r="DJ8"/>
-      <c r="DK8"/>
-      <c r="DL8"/>
-      <c r="DM8"/>
-      <c r="DN8"/>
-      <c r="DO8"/>
-      <c r="DP8"/>
-      <c r="DQ8"/>
-      <c r="DR8"/>
-      <c r="DS8"/>
-      <c r="DT8"/>
-      <c r="DU8"/>
-      <c r="DV8"/>
-      <c r="DW8"/>
-      <c r="DX8"/>
-      <c r="DY8"/>
-      <c r="DZ8"/>
-      <c r="EA8"/>
-      <c r="EB8"/>
-      <c r="EC8"/>
-    </row>
-    <row r="9" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-      <c r="CQ9"/>
-      <c r="CR9"/>
-      <c r="CS9"/>
-      <c r="CT9"/>
-      <c r="CU9"/>
-      <c r="CV9"/>
-      <c r="CW9"/>
-      <c r="CX9"/>
-      <c r="CY9"/>
-      <c r="CZ9"/>
-      <c r="DA9"/>
-      <c r="DB9"/>
-      <c r="DC9"/>
-      <c r="DD9"/>
-      <c r="DE9"/>
-      <c r="DF9"/>
-      <c r="DG9"/>
-      <c r="DH9"/>
-      <c r="DI9"/>
-      <c r="DJ9"/>
-      <c r="DK9"/>
-      <c r="DL9"/>
-      <c r="DM9"/>
-      <c r="DN9"/>
-      <c r="DO9"/>
-      <c r="DP9"/>
-      <c r="DQ9"/>
-      <c r="DR9"/>
-      <c r="DS9"/>
-      <c r="DT9"/>
-      <c r="DU9"/>
-      <c r="DV9"/>
-      <c r="DW9"/>
-      <c r="DX9"/>
-      <c r="DY9"/>
-      <c r="DZ9"/>
-      <c r="EA9"/>
-      <c r="EB9"/>
-      <c r="EC9"/>
-    </row>
-    <row r="10" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" t="s">
-        <v>170</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
-    </row>
-    <row r="11" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-      <c r="BE11"/>
-      <c r="BF11"/>
-      <c r="BG11"/>
-      <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
-      <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
-      <c r="BQ11"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
-      <c r="BU11"/>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
-      <c r="BY11"/>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
-      <c r="CG11"/>
-      <c r="CH11"/>
-      <c r="CI11"/>
-      <c r="CJ11"/>
-      <c r="CK11"/>
-      <c r="CL11"/>
-      <c r="CM11"/>
-      <c r="CN11"/>
-      <c r="CO11"/>
-      <c r="CP11"/>
-      <c r="CQ11"/>
-      <c r="CR11"/>
-      <c r="CS11"/>
-      <c r="CT11"/>
-      <c r="CU11"/>
-      <c r="CV11"/>
-      <c r="CW11"/>
-      <c r="CX11"/>
-      <c r="CY11"/>
-      <c r="CZ11"/>
-      <c r="DA11"/>
-      <c r="DB11"/>
-      <c r="DC11"/>
-      <c r="DD11"/>
-      <c r="DE11"/>
-      <c r="DF11"/>
-      <c r="DG11"/>
-      <c r="DH11"/>
-      <c r="DI11"/>
-      <c r="DJ11"/>
-      <c r="DK11"/>
-      <c r="DL11"/>
-      <c r="DM11"/>
-      <c r="DN11"/>
-      <c r="DO11"/>
-      <c r="DP11"/>
-      <c r="DQ11"/>
-      <c r="DR11"/>
-      <c r="DS11"/>
-      <c r="DT11"/>
-      <c r="DU11"/>
-      <c r="DV11"/>
-      <c r="DW11"/>
-      <c r="DX11"/>
-      <c r="DY11"/>
-      <c r="DZ11"/>
-      <c r="EA11"/>
-      <c r="EB11"/>
-      <c r="EC11"/>
-    </row>
-    <row r="12" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
-      <c r="AU12"/>
-      <c r="AV12"/>
-      <c r="AW12"/>
-      <c r="AX12"/>
-      <c r="AY12"/>
-      <c r="AZ12"/>
-      <c r="BA12"/>
-      <c r="BB12"/>
-      <c r="BC12"/>
-      <c r="BD12"/>
-      <c r="BE12"/>
-      <c r="BF12"/>
-      <c r="BG12"/>
-      <c r="BH12"/>
-      <c r="BI12"/>
-      <c r="BJ12"/>
-      <c r="BK12"/>
-      <c r="BL12"/>
-      <c r="BM12"/>
-      <c r="BN12"/>
-      <c r="BO12"/>
-      <c r="BP12"/>
-      <c r="BQ12"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
-      <c r="BT12"/>
-      <c r="BU12"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
-      <c r="BY12"/>
-      <c r="BZ12"/>
-      <c r="CA12"/>
-      <c r="CB12"/>
-      <c r="CC12"/>
-      <c r="CD12"/>
-      <c r="CE12"/>
-      <c r="CF12"/>
-      <c r="CG12"/>
-      <c r="CH12"/>
-      <c r="CI12"/>
-      <c r="CJ12"/>
-      <c r="CK12"/>
-      <c r="CL12"/>
-      <c r="CM12"/>
-      <c r="CN12"/>
-      <c r="CO12"/>
-      <c r="CP12"/>
-      <c r="CQ12"/>
-      <c r="CR12"/>
-      <c r="CS12"/>
-      <c r="CT12"/>
-      <c r="CU12"/>
-      <c r="CV12"/>
-      <c r="CW12"/>
-      <c r="CX12"/>
-      <c r="CY12"/>
-      <c r="CZ12"/>
-      <c r="DA12"/>
-      <c r="DB12"/>
-      <c r="DC12"/>
-      <c r="DD12"/>
-      <c r="DE12"/>
-      <c r="DF12"/>
-      <c r="DG12"/>
-      <c r="DH12"/>
-      <c r="DI12"/>
-      <c r="DJ12"/>
-      <c r="DK12"/>
-      <c r="DL12"/>
-      <c r="DM12"/>
-      <c r="DN12"/>
-      <c r="DO12"/>
-      <c r="DP12"/>
-      <c r="DQ12"/>
-      <c r="DR12"/>
-      <c r="DS12"/>
-      <c r="DT12"/>
-      <c r="DU12"/>
-      <c r="DV12"/>
-      <c r="DW12"/>
-      <c r="DX12"/>
-      <c r="DY12"/>
-      <c r="DZ12"/>
-      <c r="EA12"/>
-      <c r="EB12"/>
-      <c r="EC12"/>
-    </row>
-    <row r="13" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-      <c r="BE13"/>
-      <c r="BF13"/>
-      <c r="BG13"/>
-      <c r="BH13"/>
-      <c r="BI13"/>
-      <c r="BJ13"/>
-      <c r="BK13"/>
-      <c r="BL13"/>
-      <c r="BM13"/>
-      <c r="BN13"/>
-      <c r="BO13"/>
-      <c r="BP13"/>
-      <c r="BQ13"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13"/>
-      <c r="BU13"/>
-      <c r="BV13"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
-      <c r="BY13"/>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
-      <c r="CG13"/>
-      <c r="CH13"/>
-      <c r="CI13"/>
-      <c r="CJ13"/>
-      <c r="CK13"/>
-      <c r="CL13"/>
-      <c r="CM13"/>
-      <c r="CN13"/>
-      <c r="CO13"/>
-      <c r="CP13"/>
-      <c r="CQ13"/>
-      <c r="CR13"/>
-      <c r="CS13"/>
-      <c r="CT13"/>
-      <c r="CU13"/>
-      <c r="CV13"/>
-      <c r="CW13"/>
-      <c r="CX13"/>
-      <c r="CY13"/>
-      <c r="CZ13"/>
-      <c r="DA13"/>
-      <c r="DB13"/>
-      <c r="DC13"/>
-      <c r="DD13"/>
-      <c r="DE13"/>
-      <c r="DF13"/>
-      <c r="DG13"/>
-      <c r="DH13"/>
-      <c r="DI13"/>
-      <c r="DJ13"/>
-      <c r="DK13"/>
-      <c r="DL13"/>
-      <c r="DM13"/>
-      <c r="DN13"/>
-      <c r="DO13"/>
-      <c r="DP13"/>
-      <c r="DQ13"/>
-      <c r="DR13"/>
-      <c r="DS13"/>
-      <c r="DT13"/>
-      <c r="DU13"/>
-      <c r="DV13"/>
-      <c r="DW13"/>
-      <c r="DX13"/>
-      <c r="DY13"/>
-      <c r="DZ13"/>
-      <c r="EA13"/>
-      <c r="EB13"/>
-      <c r="EC13"/>
-    </row>
-    <row r="14" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
-      <c r="BL14"/>
-      <c r="BM14"/>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14"/>
-      <c r="CL14"/>
-      <c r="CM14"/>
-      <c r="CN14"/>
-      <c r="CO14"/>
-      <c r="CP14"/>
-      <c r="CQ14"/>
-      <c r="CR14"/>
-      <c r="CS14"/>
-      <c r="CT14"/>
-      <c r="CU14"/>
-      <c r="CV14"/>
-      <c r="CW14"/>
-      <c r="CX14"/>
-      <c r="CY14"/>
-      <c r="CZ14"/>
-      <c r="DA14"/>
-      <c r="DB14"/>
-      <c r="DC14"/>
-      <c r="DD14"/>
-      <c r="DE14"/>
-      <c r="DF14"/>
-      <c r="DG14"/>
-      <c r="DH14"/>
-      <c r="DI14"/>
-      <c r="DJ14"/>
-      <c r="DK14"/>
-      <c r="DL14"/>
-      <c r="DM14"/>
-      <c r="DN14"/>
-      <c r="DO14"/>
-      <c r="DP14"/>
-      <c r="DQ14"/>
-      <c r="DR14"/>
-      <c r="DS14"/>
-      <c r="DT14"/>
-      <c r="DU14"/>
-      <c r="DV14"/>
-      <c r="DW14"/>
-      <c r="DX14"/>
-      <c r="DY14"/>
-      <c r="DZ14"/>
-      <c r="EA14"/>
-      <c r="EB14"/>
-      <c r="EC14"/>
-    </row>
-    <row r="15" spans="1:133" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>175</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15"/>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
-      <c r="AX15"/>
-      <c r="AY15"/>
-      <c r="AZ15"/>
-      <c r="BA15"/>
-      <c r="BB15"/>
-      <c r="BC15"/>
-      <c r="BD15"/>
-      <c r="BE15"/>
-      <c r="BF15"/>
-      <c r="BG15"/>
-      <c r="BH15"/>
-      <c r="BI15"/>
-      <c r="BJ15"/>
-      <c r="BK15"/>
-      <c r="BL15"/>
-      <c r="BM15"/>
-      <c r="BN15"/>
-      <c r="BO15"/>
-      <c r="BP15"/>
-      <c r="BQ15"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
-      <c r="BT15"/>
-      <c r="BU15"/>
-      <c r="BV15"/>
-      <c r="BW15"/>
-      <c r="BX15"/>
-      <c r="BY15"/>
-      <c r="BZ15"/>
-      <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
-      <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
-      <c r="CG15"/>
-      <c r="CH15"/>
-      <c r="CI15"/>
-      <c r="CJ15"/>
-      <c r="CK15"/>
-      <c r="CL15"/>
-      <c r="CM15"/>
-      <c r="CN15"/>
-      <c r="CO15"/>
-      <c r="CP15"/>
-      <c r="CQ15"/>
-      <c r="CR15"/>
-      <c r="CS15"/>
-      <c r="CT15"/>
-      <c r="CU15"/>
-      <c r="CV15"/>
-      <c r="CW15"/>
-      <c r="CX15"/>
-      <c r="CY15"/>
-      <c r="CZ15"/>
-      <c r="DA15"/>
-      <c r="DB15"/>
-      <c r="DC15"/>
-      <c r="DD15"/>
-      <c r="DE15"/>
-      <c r="DF15"/>
-      <c r="DG15"/>
-      <c r="DH15"/>
-      <c r="DI15"/>
-      <c r="DJ15"/>
-      <c r="DK15"/>
-      <c r="DL15"/>
-      <c r="DM15"/>
-      <c r="DN15"/>
-      <c r="DO15"/>
-      <c r="DP15"/>
-      <c r="DQ15"/>
-      <c r="DR15"/>
-      <c r="DS15"/>
-      <c r="DT15"/>
-      <c r="DU15"/>
-      <c r="DV15"/>
-      <c r="DW15"/>
-      <c r="DX15"/>
-      <c r="DY15"/>
-      <c r="DZ15"/>
-      <c r="EA15"/>
-      <c r="EB15"/>
-      <c r="EC15"/>
-    </row>
-    <row r="16" spans="1:133" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
-      <c r="AX16"/>
-      <c r="AY16"/>
-      <c r="AZ16"/>
-      <c r="BA16"/>
-      <c r="BB16"/>
-      <c r="BC16"/>
-      <c r="BD16"/>
-      <c r="BE16"/>
-      <c r="BF16"/>
-      <c r="BG16"/>
-      <c r="BH16"/>
-      <c r="BI16"/>
-      <c r="BJ16"/>
-      <c r="BK16"/>
-      <c r="BL16"/>
-      <c r="BM16"/>
-      <c r="BN16"/>
-      <c r="BO16"/>
-      <c r="BP16"/>
-      <c r="BQ16"/>
-      <c r="BR16"/>
-      <c r="BS16"/>
-      <c r="BT16"/>
-      <c r="BU16"/>
-      <c r="BV16"/>
-      <c r="BW16"/>
-      <c r="BX16"/>
-      <c r="BY16"/>
-      <c r="BZ16"/>
-      <c r="CA16"/>
-      <c r="CB16"/>
-      <c r="CC16"/>
-      <c r="CD16"/>
-      <c r="CE16"/>
-      <c r="CF16"/>
-      <c r="CG16"/>
-      <c r="CH16"/>
-      <c r="CI16"/>
-      <c r="CJ16"/>
-      <c r="CK16"/>
-      <c r="CL16"/>
-      <c r="CM16"/>
-      <c r="CN16"/>
-      <c r="CO16"/>
-      <c r="CP16"/>
-      <c r="CQ16"/>
-      <c r="CR16"/>
-      <c r="CS16"/>
-      <c r="CT16"/>
-      <c r="CU16"/>
-      <c r="CV16"/>
-      <c r="CW16"/>
-      <c r="CX16"/>
-      <c r="CY16"/>
-      <c r="CZ16"/>
-      <c r="DA16"/>
-      <c r="DB16"/>
-      <c r="DC16"/>
-      <c r="DD16"/>
-      <c r="DE16"/>
-      <c r="DF16"/>
-      <c r="DG16"/>
-      <c r="DH16"/>
-      <c r="DI16"/>
-      <c r="DJ16"/>
-      <c r="DK16"/>
-      <c r="DL16"/>
-      <c r="DM16"/>
-      <c r="DN16"/>
-      <c r="DO16"/>
-      <c r="DP16"/>
-      <c r="DQ16"/>
-      <c r="DR16"/>
-      <c r="DS16"/>
-      <c r="DT16"/>
-      <c r="DU16"/>
-      <c r="DV16"/>
-      <c r="DW16"/>
-      <c r="DX16"/>
-      <c r="DY16"/>
-      <c r="DZ16"/>
-      <c r="EA16"/>
-      <c r="EB16"/>
-      <c r="EC16"/>
-    </row>
-    <row r="17" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17"/>
-      <c r="CH17"/>
-      <c r="CI17"/>
-      <c r="CJ17"/>
-      <c r="CK17"/>
-      <c r="CL17"/>
-      <c r="CM17"/>
-      <c r="CN17"/>
-      <c r="CO17"/>
-      <c r="CP17"/>
-      <c r="CQ17"/>
-      <c r="CR17"/>
-      <c r="CS17"/>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="CV17"/>
-      <c r="CW17"/>
-      <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-      <c r="DA17"/>
-      <c r="DB17"/>
-      <c r="DC17"/>
-      <c r="DD17"/>
-      <c r="DE17"/>
-      <c r="DF17"/>
-      <c r="DG17"/>
-      <c r="DH17"/>
-      <c r="DI17"/>
-      <c r="DJ17"/>
-      <c r="DK17"/>
-      <c r="DL17"/>
-      <c r="DM17"/>
-      <c r="DN17"/>
-      <c r="DO17"/>
-      <c r="DP17"/>
-      <c r="DQ17"/>
-      <c r="DR17"/>
-      <c r="DS17"/>
-      <c r="DT17"/>
-      <c r="DU17"/>
-      <c r="DV17"/>
-      <c r="DW17"/>
-      <c r="DX17"/>
-      <c r="DY17"/>
-      <c r="DZ17"/>
-      <c r="EA17"/>
-      <c r="EB17"/>
-      <c r="EC17"/>
-    </row>
-    <row r="18" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" t="s">
         <v>178</v>
-      </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-      <c r="BE18"/>
-      <c r="BF18"/>
-      <c r="BG18"/>
-      <c r="BH18"/>
-      <c r="BI18"/>
-      <c r="BJ18"/>
-      <c r="BK18"/>
-      <c r="BL18"/>
-      <c r="BM18"/>
-      <c r="BN18"/>
-      <c r="BO18"/>
-      <c r="BP18"/>
-      <c r="BQ18"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
-      <c r="BY18"/>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
-      <c r="CG18"/>
-      <c r="CH18"/>
-      <c r="CI18"/>
-      <c r="CJ18"/>
-      <c r="CK18"/>
-      <c r="CL18"/>
-      <c r="CM18"/>
-      <c r="CN18"/>
-      <c r="CO18"/>
-      <c r="CP18"/>
-      <c r="CQ18"/>
-      <c r="CR18"/>
-      <c r="CS18"/>
-      <c r="CT18"/>
-      <c r="CU18"/>
-      <c r="CV18"/>
-      <c r="CW18"/>
-      <c r="CX18"/>
-      <c r="CY18"/>
-      <c r="CZ18"/>
-      <c r="DA18"/>
-      <c r="DB18"/>
-      <c r="DC18"/>
-      <c r="DD18"/>
-      <c r="DE18"/>
-      <c r="DF18"/>
-      <c r="DG18"/>
-      <c r="DH18"/>
-      <c r="DI18"/>
-      <c r="DJ18"/>
-      <c r="DK18"/>
-      <c r="DL18"/>
-      <c r="DM18"/>
-      <c r="DN18"/>
-      <c r="DO18"/>
-      <c r="DP18"/>
-      <c r="DQ18"/>
-      <c r="DR18"/>
-      <c r="DS18"/>
-      <c r="DT18"/>
-      <c r="DU18"/>
-      <c r="DV18"/>
-      <c r="DW18"/>
-      <c r="DX18"/>
-      <c r="DY18"/>
-      <c r="DZ18"/>
-      <c r="EA18"/>
-      <c r="EB18"/>
-      <c r="EC18"/>
-    </row>
-    <row r="19" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
-      <c r="BJ19"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
-      <c r="BM19"/>
-      <c r="BN19"/>
-      <c r="BO19"/>
-      <c r="BP19"/>
-      <c r="BQ19"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
-      <c r="BY19"/>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
-      <c r="CG19"/>
-      <c r="CH19"/>
-      <c r="CI19"/>
-      <c r="CJ19"/>
-      <c r="CK19"/>
-      <c r="CL19"/>
-      <c r="CM19"/>
-      <c r="CN19"/>
-      <c r="CO19"/>
-      <c r="CP19"/>
-      <c r="CQ19"/>
-      <c r="CR19"/>
-      <c r="CS19"/>
-      <c r="CT19"/>
-      <c r="CU19"/>
-      <c r="CV19"/>
-      <c r="CW19"/>
-      <c r="CX19"/>
-      <c r="CY19"/>
-      <c r="CZ19"/>
-      <c r="DA19"/>
-      <c r="DB19"/>
-      <c r="DC19"/>
-      <c r="DD19"/>
-      <c r="DE19"/>
-      <c r="DF19"/>
-      <c r="DG19"/>
-      <c r="DH19"/>
-      <c r="DI19"/>
-      <c r="DJ19"/>
-      <c r="DK19"/>
-      <c r="DL19"/>
-      <c r="DM19"/>
-      <c r="DN19"/>
-      <c r="DO19"/>
-      <c r="DP19"/>
-      <c r="DQ19"/>
-      <c r="DR19"/>
-      <c r="DS19"/>
-      <c r="DT19"/>
-      <c r="DU19"/>
-      <c r="DV19"/>
-      <c r="DW19"/>
-      <c r="DX19"/>
-      <c r="DY19"/>
-      <c r="DZ19"/>
-      <c r="EA19"/>
-      <c r="EB19"/>
-      <c r="EC19"/>
-    </row>
-    <row r="20" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20"/>
-      <c r="AN20"/>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
-      <c r="AX20"/>
-      <c r="AY20"/>
-      <c r="AZ20"/>
-      <c r="BA20"/>
-      <c r="BB20"/>
-      <c r="BC20"/>
-      <c r="BD20"/>
-      <c r="BE20"/>
-      <c r="BF20"/>
-      <c r="BG20"/>
-      <c r="BH20"/>
-      <c r="BI20"/>
-      <c r="BJ20"/>
-      <c r="BK20"/>
-      <c r="BL20"/>
-      <c r="BM20"/>
-      <c r="BN20"/>
-      <c r="BO20"/>
-      <c r="BP20"/>
-      <c r="BQ20"/>
-      <c r="BR20"/>
-      <c r="BS20"/>
-      <c r="BT20"/>
-      <c r="BU20"/>
-      <c r="BV20"/>
-      <c r="BW20"/>
-      <c r="BX20"/>
-      <c r="BY20"/>
-      <c r="BZ20"/>
-      <c r="CA20"/>
-      <c r="CB20"/>
-      <c r="CC20"/>
-      <c r="CD20"/>
-      <c r="CE20"/>
-      <c r="CF20"/>
-      <c r="CG20"/>
-      <c r="CH20"/>
-      <c r="CI20"/>
-      <c r="CJ20"/>
-      <c r="CK20"/>
-      <c r="CL20"/>
-      <c r="CM20"/>
-      <c r="CN20"/>
-      <c r="CO20"/>
-      <c r="CP20"/>
-      <c r="CQ20"/>
-      <c r="CR20"/>
-      <c r="CS20"/>
-      <c r="CT20"/>
-      <c r="CU20"/>
-      <c r="CV20"/>
-      <c r="CW20"/>
-      <c r="CX20"/>
-      <c r="CY20"/>
-      <c r="CZ20"/>
-      <c r="DA20"/>
-      <c r="DB20"/>
-      <c r="DC20"/>
-      <c r="DD20"/>
-      <c r="DE20"/>
-      <c r="DF20"/>
-      <c r="DG20"/>
-      <c r="DH20"/>
-      <c r="DI20"/>
-      <c r="DJ20"/>
-      <c r="DK20"/>
-      <c r="DL20"/>
-      <c r="DM20"/>
-      <c r="DN20"/>
-      <c r="DO20"/>
-      <c r="DP20"/>
-      <c r="DQ20"/>
-      <c r="DR20"/>
-      <c r="DS20"/>
-      <c r="DT20"/>
-      <c r="DU20"/>
-      <c r="DV20"/>
-      <c r="DW20"/>
-      <c r="DX20"/>
-      <c r="DY20"/>
-      <c r="DZ20"/>
-      <c r="EA20"/>
-      <c r="EB20"/>
-      <c r="EC20"/>
-    </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="L22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="L23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="L24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B9:G9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:EC26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3"/>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
-      <c r="AX3"/>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BA3"/>
-      <c r="BB3"/>
-      <c r="BC3"/>
-      <c r="BD3"/>
-      <c r="BE3"/>
-      <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
-      <c r="BM3"/>
-      <c r="BN3"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
-      <c r="BT3"/>
-      <c r="BU3"/>
-      <c r="BV3"/>
-      <c r="BW3"/>
-      <c r="BX3"/>
-      <c r="BY3"/>
-      <c r="BZ3"/>
-      <c r="CA3"/>
-      <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
-      <c r="CG3"/>
-      <c r="CH3"/>
-      <c r="CI3"/>
-      <c r="CJ3"/>
-      <c r="CK3"/>
-      <c r="CL3"/>
-      <c r="CM3"/>
-      <c r="CN3"/>
-      <c r="CO3"/>
-      <c r="CP3"/>
-      <c r="CQ3"/>
-      <c r="CR3"/>
-      <c r="CS3"/>
-      <c r="CT3"/>
-      <c r="CU3"/>
-      <c r="CV3"/>
-      <c r="CW3"/>
-      <c r="CX3"/>
-      <c r="CY3"/>
-      <c r="CZ3"/>
-      <c r="DA3"/>
-      <c r="DB3"/>
-      <c r="DC3"/>
-      <c r="DD3"/>
-      <c r="DE3"/>
-      <c r="DF3"/>
-      <c r="DG3"/>
-      <c r="DH3"/>
-      <c r="DI3"/>
-      <c r="DJ3"/>
-      <c r="DK3"/>
-      <c r="DL3"/>
-      <c r="DM3"/>
-      <c r="DN3"/>
-      <c r="DO3"/>
-      <c r="DP3"/>
-      <c r="DQ3"/>
-      <c r="DR3"/>
-      <c r="DS3"/>
-      <c r="DT3"/>
-      <c r="DU3"/>
-      <c r="DV3"/>
-      <c r="DW3"/>
-      <c r="DX3"/>
-      <c r="DY3"/>
-      <c r="DZ3"/>
-      <c r="EA3"/>
-      <c r="EB3"/>
-      <c r="EC3"/>
-    </row>
-    <row r="4" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>144</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -14190,7 +11551,7 @@
     <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="15" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -14204,7 +11565,7 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -14330,14 +11691,14 @@
     </row>
     <row r="6" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
       <c r="H6"/>
       <c r="I6" s="10"/>
       <c r="J6" t="s">
@@ -14345,7 +11706,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -14471,14 +11832,14 @@
     </row>
     <row r="7" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
       <c r="H7"/>
       <c r="I7" s="5"/>
       <c r="J7" t="s">
@@ -14486,7 +11847,7 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -14627,7 +11988,7 @@
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -14766,7 +12127,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -14905,7 +12266,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -15044,7 +12405,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -15171,7 +12532,7 @@
     <row r="12" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="34" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -15183,7 +12544,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -15322,7 +12683,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -15461,7 +12822,7 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -15591,7 +12952,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="41"/>
@@ -15600,7 +12961,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -15731,7 +13092,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="40" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16"/>
@@ -15739,7 +13100,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -15878,7 +13239,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -16007,7 +13368,7 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="50" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -16017,7 +13378,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -16156,7 +13517,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -16295,7 +13656,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -16429,7 +13790,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="41"/>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
@@ -16442,7 +13803,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="41"/>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -16450,12 +13811,12 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="40" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="41"/>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -16464,11 +13825,11 @@
       <c r="D24" s="9"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="G24" s="22"/>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.25">
@@ -16481,7 +13842,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
       <c r="L25" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
@@ -16493,27 +13854,2715 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="49"/>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="D17:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:EC27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3"/>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+    </row>
+    <row r="4" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+    </row>
+    <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5"/>
+      <c r="I5" s="3"/>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+    </row>
+    <row r="6" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+    </row>
+    <row r="7" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+    </row>
+    <row r="8" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+    </row>
+    <row r="9" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+    </row>
+    <row r="10" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+    </row>
+    <row r="11" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+    </row>
+    <row r="12" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+    </row>
+    <row r="13" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+    </row>
+    <row r="14" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
+      <c r="CP14"/>
+      <c r="CQ14"/>
+      <c r="CR14"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
+      <c r="CU14"/>
+      <c r="CV14"/>
+      <c r="CW14"/>
+      <c r="CX14"/>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+      <c r="DP14"/>
+      <c r="DQ14"/>
+      <c r="DR14"/>
+      <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
+      <c r="EB14"/>
+      <c r="EC14"/>
+    </row>
+    <row r="15" spans="1:133" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15"/>
+      <c r="BQ15"/>
+      <c r="BR15"/>
+      <c r="BS15"/>
+      <c r="BT15"/>
+      <c r="BU15"/>
+      <c r="BV15"/>
+      <c r="BW15"/>
+      <c r="BX15"/>
+      <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
+      <c r="CI15"/>
+      <c r="CJ15"/>
+      <c r="CK15"/>
+      <c r="CL15"/>
+      <c r="CM15"/>
+      <c r="CN15"/>
+      <c r="CO15"/>
+      <c r="CP15"/>
+      <c r="CQ15"/>
+      <c r="CR15"/>
+      <c r="CS15"/>
+      <c r="CT15"/>
+      <c r="CU15"/>
+      <c r="CV15"/>
+      <c r="CW15"/>
+      <c r="CX15"/>
+      <c r="CY15"/>
+      <c r="CZ15"/>
+      <c r="DA15"/>
+      <c r="DB15"/>
+      <c r="DC15"/>
+      <c r="DD15"/>
+      <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15"/>
+      <c r="DH15"/>
+      <c r="DI15"/>
+      <c r="DJ15"/>
+      <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+      <c r="DP15"/>
+      <c r="DQ15"/>
+      <c r="DR15"/>
+      <c r="DS15"/>
+      <c r="DT15"/>
+      <c r="DU15"/>
+      <c r="DV15"/>
+      <c r="DW15"/>
+      <c r="DX15"/>
+      <c r="DY15"/>
+      <c r="DZ15"/>
+      <c r="EA15"/>
+      <c r="EB15"/>
+      <c r="EC15"/>
+    </row>
+    <row r="16" spans="1:133" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+    </row>
+    <row r="17" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+    </row>
+    <row r="18" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+    </row>
+    <row r="19" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+    </row>
+    <row r="20" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+    </row>
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="L25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="B27" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -16703,7 +16752,7 @@
       <c r="A4"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>

--- a/Projects/AAXDataEntityPerfTest/Excel/Data Entity Method Execution.xlsx
+++ b/Projects/AAXDataEntityPerfTest/Excel/Data Entity Method Execution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AOSService\PackagesLocalDirectory\AAXDataEntityPerfTest\Projects\AAXDataEntityPerfTest\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\source\repos\NathanClouseAX\AAXDataEntityPerfTest\Projects\AAXDataEntityPerfTest\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1BEAD-D8BC-436A-8EFB-86DCE3CF4F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OData Create" sheetId="1" r:id="rId1"/>
@@ -26,15 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -111,9 +103,6 @@
     <t>Data Source Table Field Level</t>
   </si>
   <si>
-    <t>At End, After All Record(s) Have Been Processed</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
@@ -640,12 +629,15 @@
   </si>
   <si>
     <t>postGetStagingData</t>
+  </si>
+  <si>
+    <t>Part of DMF, optional processing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,194 +1031,194 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table2567" displayName="Table2567" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table2567" displayName="Table2567" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="L2:O3" totalsRowShown="0">
-  <autoFilter ref="L2:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table16" displayName="Table16" ref="L2:O3" totalsRowShown="0">
+  <autoFilter ref="L2:O3" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="X++ using Data Entity - instance"/>
-    <tableColumn id="2" name="X++ using Data Entity - static"/>
-    <tableColumn id="3" name="C# Using Entity via Odata - instance"/>
-    <tableColumn id="4" name="C# Using Entity via Odata - Static"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="X++ using Data Entity - instance"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="X++ using Data Entity - static"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="C# Using Entity via Odata - instance"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="C# Using Entity via Odata - Static"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table2568" displayName="Table2568" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table2568" displayName="Table2568" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="L2:M4" totalsRowShown="0">
-  <autoFilter ref="L2:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table17" displayName="Table17" ref="L2:M4" totalsRowShown="0">
+  <autoFilter ref="L2:M4" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="X++ using Data Entity"/>
-    <tableColumn id="2" name="C# Using Entity via Odata"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="X++ using Data Entity"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="C# Using Entity via Odata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table29" displayName="Table29" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table29" displayName="Table29" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="L2:L29" totalsRowShown="0">
-  <autoFilter ref="L2:L29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table18" displayName="Table18" ref="L2:L29" totalsRowShown="0">
+  <autoFilter ref="L2:L29" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DMF Insert"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="DMF Insert"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table2910" displayName="Table2910" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2910" displayName="Table2910" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="L2:L26" totalsRowShown="0">
-  <autoFilter ref="L2:L26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table19" displayName="Table19" ref="L2:L26" totalsRowShown="0">
+  <autoFilter ref="L2:L26" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DMF Update"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="DMF Update"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table256811" displayName="Table256811" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table256811" displayName="Table256811" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="L2:L4" totalsRowShown="0">
-  <autoFilter ref="L2:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table20" displayName="Table20" ref="L2:L4" totalsRowShown="0">
+  <autoFilter ref="L2:L4" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DMF Export"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="DMF Export"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="L2:L18" totalsRowShown="0">
-  <autoFilter ref="L2:L18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="L2:L18" totalsRowShown="0">
+  <autoFilter ref="L2:L18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="X++ using Data Entity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="X++ using Data Entity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="M2:M24" totalsRowShown="0">
-  <autoFilter ref="M2:M24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table11" displayName="Table11" ref="M2:M24" totalsRowShown="0">
+  <autoFilter ref="M2:M24" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="C# Using Entity via Odata"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="C# Using Entity via Odata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="L2:L16" totalsRowShown="0">
-  <autoFilter ref="L2:L16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table12" displayName="Table12" ref="L2:L16" totalsRowShown="0">
+  <autoFilter ref="L2:L16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="X++ using Data Entity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="X++ using Data Entity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="M2:M28" totalsRowShown="0">
-  <autoFilter ref="M2:M28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13" displayName="Table13" ref="M2:M28" totalsRowShown="0">
+  <autoFilter ref="M2:M28" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="C# Using Entity via Odata"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="C# Using Entity via Odata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table256" displayName="Table256" ref="I2:J8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table256" displayName="Table256" ref="I2:J8" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Legend"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Legend"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="L2:L14" totalsRowShown="0">
-  <autoFilter ref="L2:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table14" displayName="Table14" ref="L2:L14" totalsRowShown="0">
+  <autoFilter ref="L2:L14" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="X++ using Data Entity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="X++ using Data Entity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="M2:M18" totalsRowShown="0">
-  <autoFilter ref="M2:M18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table15" displayName="Table15" ref="M2:M18" totalsRowShown="0">
+  <autoFilter ref="M2:M18" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="C# Using Entity via Odata"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="C# Using Entity via Odata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1528,11 +1520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:EC24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M24"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,16 +1553,16 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -1579,14 +1571,14 @@
       <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -1726,10 +1718,10 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -1869,10 +1861,10 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -2012,10 +2004,10 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -2155,10 +2147,10 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -2294,14 +2286,14 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -2439,10 +2431,10 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -2580,10 +2572,10 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -2721,10 +2713,10 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -2862,10 +2854,10 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3003,10 +2995,10 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -3144,10 +3136,10 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -3285,10 +3277,10 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -3426,10 +3418,10 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -3567,10 +3559,10 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -3708,10 +3700,10 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -3850,7 +3842,7 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -3989,7 +3981,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4128,7 +4120,7 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4261,7 +4253,7 @@
       </c>
       <c r="G22" s="9"/>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -4271,10 +4263,10 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -4287,7 +4279,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4314,11 +4306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:EC28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M28"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4333,7 +4325,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -4347,10 +4339,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4365,14 +4357,14 @@
       <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -4499,7 +4491,7 @@
       <c r="A4"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -4512,10 +4504,10 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -4643,7 +4635,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -4655,10 +4647,10 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -4798,10 +4790,10 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -4928,7 +4920,7 @@
       <c r="A7"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -4941,10 +4933,10 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -5080,14 +5072,14 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -5225,10 +5217,10 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -5354,7 +5346,7 @@
     <row r="10" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5366,10 +5358,10 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -5496,7 +5488,7 @@
       <c r="A11"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -5507,10 +5499,10 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -5648,10 +5640,10 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -5789,10 +5781,10 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -5930,10 +5922,10 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -6060,7 +6052,7 @@
       <c r="A15"/>
       <c r="B15" s="7"/>
       <c r="C15" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -6071,10 +6063,10 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -6212,10 +6204,10 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -6354,7 +6346,7 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -6493,7 +6485,7 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -6624,7 +6616,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6632,7 +6624,7 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -6771,7 +6763,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -6899,12 +6891,12 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
@@ -6917,7 +6909,7 @@
       </c>
       <c r="G22" s="8"/>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -6930,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -6943,7 +6935,7 @@
       </c>
       <c r="G24" s="9"/>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.25">
@@ -6956,7 +6948,7 @@
       </c>
       <c r="G25" s="9"/>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
@@ -6965,11 +6957,11 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="9"/>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.25">
@@ -6979,10 +6971,10 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:133" x14ac:dyDescent="0.25">
@@ -6995,7 +6987,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7020,11 +7012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:EC18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7039,7 +7031,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -7053,10 +7045,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7071,14 +7063,14 @@
       <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -7205,7 +7197,7 @@
       <c r="A4"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -7218,10 +7210,10 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -7349,7 +7341,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -7361,10 +7353,10 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -7504,10 +7496,10 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -7634,7 +7626,7 @@
       <c r="A7"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -7647,10 +7639,10 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -7776,7 +7768,7 @@
     <row r="8" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -7786,14 +7778,14 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -7919,7 +7911,7 @@
     <row r="9" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -7931,10 +7923,10 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -8072,10 +8064,10 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -8213,10 +8205,10 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -8354,10 +8346,10 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -8487,7 +8479,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13"/>
@@ -8495,10 +8487,10 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -8636,10 +8628,10 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -8767,7 +8759,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -8778,7 +8770,7 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -8907,7 +8899,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="41"/>
@@ -8917,7 +8909,7 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -9046,11 +9038,11 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="41"/>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -9060,10 +9052,10 @@
       <c r="E18" s="9"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -9090,11 +9082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9110,7 +9102,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -9124,32 +9116,32 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" t="s">
         <v>151</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>152</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>153</v>
-      </c>
-      <c r="O2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="46"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -9168,7 +9160,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
@@ -9190,7 +9182,7 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
@@ -9201,7 +9193,7 @@
     </row>
     <row r="7" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -9218,12 +9210,12 @@
       <c r="D8" s="13"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -9237,14 +9229,14 @@
     </row>
     <row r="11" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -9266,11 +9258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:EC16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9285,7 +9277,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -9299,10 +9291,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9317,14 +9309,14 @@
       <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -9451,7 +9443,7 @@
       <c r="A4"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -9464,10 +9456,10 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -10012,7 +10004,7 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -11232,11 +11224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:EC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11250,7 +11242,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -11264,13 +11256,13 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -11279,11 +11271,11 @@
       <c r="G3" s="49"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -11424,7 +11416,7 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -11551,7 +11543,7 @@
     <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -11565,7 +11557,7 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -11706,7 +11698,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -11847,7 +11839,7 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -11984,11 +11976,11 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -12127,7 +12119,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -12266,7 +12258,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -12405,7 +12397,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -12544,7 +12536,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -12683,7 +12675,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -12812,7 +12804,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -12822,7 +12814,7 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -12961,7 +12953,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -13100,7 +13092,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -13239,7 +13231,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -13378,7 +13370,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -13517,7 +13509,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -13656,7 +13648,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -13790,7 +13782,7 @@
       <c r="F21" s="42"/>
       <c r="G21" s="41"/>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
@@ -13803,7 +13795,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="41"/>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -13816,7 +13808,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="41"/>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -13825,11 +13817,11 @@
       <c r="D24" s="9"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="22"/>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.25">
@@ -13842,12 +13834,12 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -13855,38 +13847,26 @@
       <c r="F26" s="48"/>
       <c r="G26" s="49"/>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:133" x14ac:dyDescent="0.25">
       <c r="L28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:133" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="B26:G26"/>
@@ -13896,6 +13876,18 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -13906,11 +13898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:EC27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13924,7 +13916,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -13938,13 +13930,13 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -13953,11 +13945,11 @@
       <c r="G3" s="49"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -14098,7 +14090,7 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -14225,7 +14217,7 @@
     <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -14239,7 +14231,7 @@
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -14366,7 +14358,7 @@
     <row r="6" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -14380,7 +14372,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -14521,7 +14513,7 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -14648,7 +14640,7 @@
     <row r="8" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -14658,11 +14650,11 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -14801,7 +14793,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -14940,7 +14932,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -15079,7 +15071,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -15218,7 +15210,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -15345,7 +15337,7 @@
     <row r="13" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -15357,7 +15349,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -15496,7 +15488,7 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -15625,7 +15617,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -15635,7 +15627,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
@@ -15774,7 +15766,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -15905,7 +15897,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17"/>
@@ -15913,7 +15905,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -16052,7 +16044,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -16181,7 +16173,7 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -16191,7 +16183,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
@@ -16330,7 +16322,7 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -16464,7 +16456,7 @@
       </c>
       <c r="G21" s="55"/>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
@@ -16477,7 +16469,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="41"/>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:133" x14ac:dyDescent="0.25">
@@ -16490,7 +16482,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="41"/>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:133" x14ac:dyDescent="0.25">
@@ -16498,12 +16490,12 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="41"/>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.25">
@@ -16512,11 +16504,11 @@
       <c r="D25" s="9"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="22"/>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
@@ -16529,12 +16521,12 @@
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -16544,6 +16536,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
@@ -16555,14 +16555,6 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -16573,11 +16565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:EC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16591,7 +16583,7 @@
   <sheetData>
     <row r="2" spans="1:133" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -16605,7 +16597,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16620,11 +16612,11 @@
       <c r="G3" s="36"/>
       <c r="H3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -16752,7 +16744,7 @@
       <c r="A4"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -16765,7 +16757,7 @@
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -17311,7 +17303,7 @@
       <c r="H8"/>
       <c r="I8" s="6"/>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
